--- a/ProbableCasesOverTimeByCounty/2021-02-25.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-02-25.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/24/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/25/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Probable 2021-02-24</t>
+  </si>
+  <si>
+    <t>Probable 2021-02-25</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1363,6 +1366,7 @@
     <col min="115" max="115" width="12.0" customWidth="true"/>
     <col min="116" max="116" width="12.0" customWidth="true"/>
     <col min="117" max="117" width="12.0" customWidth="true"/>
+    <col min="118" max="118" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1727,10 +1731,13 @@
       <c r="DM3" t="s" s="10">
         <v>118</v>
       </c>
+      <c r="DN3" t="s" s="10">
+        <v>119</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -2078,12 +2085,15 @@
         <v>1241.0</v>
       </c>
       <c r="DM4" t="n">
+        <v>1242.0</v>
+      </c>
+      <c r="DN4" t="n">
         <v>1242.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2431,12 +2441,15 @@
         <v>0.0</v>
       </c>
       <c r="DM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2784,12 +2797,15 @@
         <v>3233.0</v>
       </c>
       <c r="DM6" t="n">
+        <v>3233.0</v>
+      </c>
+      <c r="DN6" t="n">
         <v>3233.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -3137,12 +3153,15 @@
         <v>269.0</v>
       </c>
       <c r="DM7" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="DN7" t="n">
         <v>269.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -3491,11 +3510,14 @@
       </c>
       <c r="DM8" t="n">
         <v>92.0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -3843,12 +3865,15 @@
         <v>42.0</v>
       </c>
       <c r="DM9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DN9" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -4197,11 +4222,14 @@
       </c>
       <c r="DM10" t="n">
         <v>1316.0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>1322.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -4550,11 +4578,14 @@
       </c>
       <c r="DM11" t="n">
         <v>268.0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -4902,12 +4933,15 @@
         <v>210.0</v>
       </c>
       <c r="DM12" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="DN12" t="n">
         <v>211.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -5256,11 +5290,14 @@
       </c>
       <c r="DM13" t="n">
         <v>346.0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>351.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -5609,11 +5646,14 @@
       </c>
       <c r="DM14" t="n">
         <v>1854.0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>1866.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -5961,12 +6001,15 @@
         <v>169.0</v>
       </c>
       <c r="DM15" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="DN15" t="n">
         <v>169.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -6314,12 +6357,15 @@
         <v>367.0</v>
       </c>
       <c r="DM16" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="DN16" t="n">
         <v>367.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6667,12 +6713,15 @@
         <v>0.0</v>
       </c>
       <c r="DM17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -7021,11 +7070,14 @@
       </c>
       <c r="DM18" t="n">
         <v>29987.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>30064.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -7374,11 +7426,14 @@
       </c>
       <c r="DM19" t="n">
         <v>112.0</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -7726,12 +7781,15 @@
         <v>7.0</v>
       </c>
       <c r="DM20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DN20" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -8080,11 +8138,14 @@
       </c>
       <c r="DM21" t="n">
         <v>288.0</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>289.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -8433,11 +8494,14 @@
       </c>
       <c r="DM22" t="n">
         <v>1964.0</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>1971.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -8786,11 +8850,14 @@
       </c>
       <c r="DM23" t="n">
         <v>4698.0</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>4727.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -9139,11 +9206,14 @@
       </c>
       <c r="DM24" t="n">
         <v>3603.0</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>3624.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -9492,11 +9562,14 @@
       </c>
       <c r="DM25" t="n">
         <v>81.0</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -9845,11 +9918,14 @@
       </c>
       <c r="DM26" t="n">
         <v>59.0</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -10197,12 +10273,15 @@
         <v>106.0</v>
       </c>
       <c r="DM27" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="DN27" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -10550,12 +10629,15 @@
         <v>2161.0</v>
       </c>
       <c r="DM28" t="n">
+        <v>2161.0</v>
+      </c>
+      <c r="DN28" t="n">
         <v>2161.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -10904,11 +10986,14 @@
       </c>
       <c r="DM29" t="n">
         <v>389.0</v>
+      </c>
+      <c r="DN29" t="n">
+        <v>390.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -11257,11 +11342,14 @@
       </c>
       <c r="DM30" t="n">
         <v>412.0</v>
+      </c>
+      <c r="DN30" t="n">
+        <v>419.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -11610,11 +11698,14 @@
       </c>
       <c r="DM31" t="n">
         <v>272.0</v>
+      </c>
+      <c r="DN31" t="n">
+        <v>273.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -11962,12 +12053,15 @@
         <v>379.0</v>
       </c>
       <c r="DM32" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="DN32" t="n">
         <v>379.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -12316,11 +12410,14 @@
       </c>
       <c r="DM33" t="n">
         <v>548.0</v>
+      </c>
+      <c r="DN33" t="n">
+        <v>550.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -12668,12 +12765,15 @@
         <v>0.0</v>
       </c>
       <c r="DM34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -13022,11 +13122,14 @@
       </c>
       <c r="DM35" t="n">
         <v>379.0</v>
+      </c>
+      <c r="DN35" t="n">
+        <v>381.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -13375,11 +13478,14 @@
       </c>
       <c r="DM36" t="n">
         <v>144.0</v>
+      </c>
+      <c r="DN36" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -13728,11 +13834,14 @@
       </c>
       <c r="DM37" t="n">
         <v>660.0</v>
+      </c>
+      <c r="DN37" t="n">
+        <v>659.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -14080,12 +14189,15 @@
         <v>250.0</v>
       </c>
       <c r="DM38" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="DN38" t="n">
         <v>250.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -14433,12 +14545,15 @@
         <v>0.0</v>
       </c>
       <c r="DM39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -14787,11 +14902,14 @@
       </c>
       <c r="DM40" t="n">
         <v>1805.0</v>
+      </c>
+      <c r="DN40" t="n">
+        <v>1808.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -15139,12 +15257,15 @@
         <v>24.0</v>
       </c>
       <c r="DM41" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DN41" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -15492,12 +15613,15 @@
         <v>78.0</v>
       </c>
       <c r="DM42" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DN42" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -15845,12 +15969,15 @@
         <v>23.0</v>
       </c>
       <c r="DM43" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DN43" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -16199,11 +16326,14 @@
       </c>
       <c r="DM44" t="n">
         <v>224.0</v>
+      </c>
+      <c r="DN44" t="n">
+        <v>223.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -16552,11 +16682,14 @@
       </c>
       <c r="DM45" t="n">
         <v>231.0</v>
+      </c>
+      <c r="DN45" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -16905,11 +17038,14 @@
       </c>
       <c r="DM46" t="n">
         <v>12829.0</v>
+      </c>
+      <c r="DN46" t="n">
+        <v>12937.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -17257,12 +17393,15 @@
         <v>70.0</v>
       </c>
       <c r="DM47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DN47" t="n">
         <v>70.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -17611,11 +17750,14 @@
       </c>
       <c r="DM48" t="n">
         <v>243.0</v>
+      </c>
+      <c r="DN48" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -17964,11 +18106,14 @@
       </c>
       <c r="DM49" t="n">
         <v>4214.0</v>
+      </c>
+      <c r="DN49" t="n">
+        <v>4259.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -18317,11 +18462,14 @@
       </c>
       <c r="DM50" t="n">
         <v>263.0</v>
+      </c>
+      <c r="DN50" t="n">
+        <v>266.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -18669,12 +18817,15 @@
         <v>140.0</v>
       </c>
       <c r="DM51" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="DN51" t="n">
         <v>139.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -19023,11 +19174,14 @@
       </c>
       <c r="DM52" t="n">
         <v>403.0</v>
+      </c>
+      <c r="DN52" t="n">
+        <v>405.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -19375,12 +19529,15 @@
         <v>236.0</v>
       </c>
       <c r="DM53" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="DN53" t="n">
         <v>237.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -19728,12 +19885,15 @@
         <v>46.0</v>
       </c>
       <c r="DM54" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DN54" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -20082,11 +20242,14 @@
       </c>
       <c r="DM55" t="n">
         <v>305.0</v>
+      </c>
+      <c r="DN55" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -20434,12 +20597,15 @@
         <v>352.0</v>
       </c>
       <c r="DM56" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="DN56" t="n">
         <v>353.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -20787,12 +20953,15 @@
         <v>196.0</v>
       </c>
       <c r="DM57" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="DN57" t="n">
         <v>195.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -21140,12 +21309,15 @@
         <v>24.0</v>
       </c>
       <c r="DM58" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DN58" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -21493,12 +21665,15 @@
         <v>69.0</v>
       </c>
       <c r="DM59" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="DN59" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -21847,11 +22022,14 @@
       </c>
       <c r="DM60" t="n">
         <v>34365.0</v>
+      </c>
+      <c r="DN60" t="n">
+        <v>34647.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -22199,12 +22377,15 @@
         <v>0.0</v>
       </c>
       <c r="DM61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -22553,11 +22734,14 @@
       </c>
       <c r="DM62" t="n">
         <v>646.0</v>
+      </c>
+      <c r="DN62" t="n">
+        <v>647.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -22905,12 +23089,15 @@
         <v>123.0</v>
       </c>
       <c r="DM63" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="DN63" t="n">
         <v>124.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -23259,11 +23446,14 @@
       </c>
       <c r="DM64" t="n">
         <v>14491.0</v>
+      </c>
+      <c r="DN64" t="n">
+        <v>14676.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -23611,12 +23801,15 @@
         <v>0.0</v>
       </c>
       <c r="DM65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -23965,11 +24158,14 @@
       </c>
       <c r="DM66" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DN66" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -24318,11 +24514,14 @@
       </c>
       <c r="DM67" t="n">
         <v>179.0</v>
+      </c>
+      <c r="DN67" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -24670,12 +24869,15 @@
         <v>174.0</v>
       </c>
       <c r="DM68" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DN68" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -25024,11 +25226,14 @@
       </c>
       <c r="DM69" t="n">
         <v>88.0</v>
+      </c>
+      <c r="DN69" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -25377,11 +25582,14 @@
       </c>
       <c r="DM70" t="n">
         <v>344.0</v>
+      </c>
+      <c r="DN70" t="n">
+        <v>358.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -25730,11 +25938,14 @@
       </c>
       <c r="DM71" t="n">
         <v>7815.0</v>
+      </c>
+      <c r="DN71" t="n">
+        <v>7908.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -26082,12 +26293,15 @@
         <v>45.0</v>
       </c>
       <c r="DM72" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DN72" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -26436,11 +26650,14 @@
       </c>
       <c r="DM73" t="n">
         <v>2702.0</v>
+      </c>
+      <c r="DN73" t="n">
+        <v>2730.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -26788,12 +27005,15 @@
         <v>0.0</v>
       </c>
       <c r="DM74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -27142,11 +27362,14 @@
       </c>
       <c r="DM75" t="n">
         <v>1238.0</v>
+      </c>
+      <c r="DN75" t="n">
+        <v>1243.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -27494,12 +27717,15 @@
         <v>156.0</v>
       </c>
       <c r="DM76" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="DN76" t="n">
         <v>157.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -27848,11 +28074,14 @@
       </c>
       <c r="DM77" t="n">
         <v>659.0</v>
+      </c>
+      <c r="DN77" t="n">
+        <v>668.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -28201,11 +28430,14 @@
       </c>
       <c r="DM78" t="n">
         <v>850.0</v>
+      </c>
+      <c r="DN78" t="n">
+        <v>853.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -28553,12 +28785,15 @@
         <v>0.0</v>
       </c>
       <c r="DM79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -28906,12 +29141,15 @@
         <v>443.0</v>
       </c>
       <c r="DM80" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="DN80" t="n">
         <v>443.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -29259,12 +29497,15 @@
         <v>32.0</v>
       </c>
       <c r="DM81" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DN81" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -29613,11 +29854,14 @@
       </c>
       <c r="DM82" t="n">
         <v>6964.0</v>
+      </c>
+      <c r="DN82" t="n">
+        <v>7053.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -29966,11 +30210,14 @@
       </c>
       <c r="DM83" t="n">
         <v>208.0</v>
+      </c>
+      <c r="DN83" t="n">
+        <v>209.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -30319,11 +30566,14 @@
       </c>
       <c r="DM84" t="n">
         <v>700.0</v>
+      </c>
+      <c r="DN84" t="n">
+        <v>703.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -30671,12 +30921,15 @@
         <v>550.0</v>
       </c>
       <c r="DM85" t="n">
+        <v>564.0</v>
+      </c>
+      <c r="DN85" t="n">
         <v>564.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -31024,12 +31277,15 @@
         <v>0.0</v>
       </c>
       <c r="DM86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -31378,11 +31634,14 @@
       </c>
       <c r="DM87" t="n">
         <v>4575.0</v>
+      </c>
+      <c r="DN87" t="n">
+        <v>4611.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -31730,12 +31989,15 @@
         <v>150.0</v>
       </c>
       <c r="DM88" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="DN88" t="n">
         <v>150.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -32084,11 +32346,14 @@
       </c>
       <c r="DM89" t="n">
         <v>767.0</v>
+      </c>
+      <c r="DN89" t="n">
+        <v>770.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -32436,12 +32701,15 @@
         <v>62.0</v>
       </c>
       <c r="DM90" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="DN90" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -32789,12 +33057,15 @@
         <v>133.0</v>
       </c>
       <c r="DM91" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="DN91" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -33142,12 +33413,15 @@
         <v>333.0</v>
       </c>
       <c r="DM92" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="DN92" t="n">
         <v>333.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -33495,12 +33769,15 @@
         <v>284.0</v>
       </c>
       <c r="DM93" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="DN93" t="n">
         <v>284.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -33848,12 +34125,15 @@
         <v>0.0</v>
       </c>
       <c r="DM94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -34201,12 +34481,15 @@
         <v>4722.0</v>
       </c>
       <c r="DM95" t="n">
+        <v>4744.0</v>
+      </c>
+      <c r="DN95" t="n">
         <v>4744.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -34555,11 +34838,14 @@
       </c>
       <c r="DM96" t="n">
         <v>307.0</v>
+      </c>
+      <c r="DN96" t="n">
+        <v>309.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -34908,11 +35194,14 @@
       </c>
       <c r="DM97" t="n">
         <v>3158.0</v>
+      </c>
+      <c r="DN97" t="n">
+        <v>3177.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -35260,12 +35549,15 @@
         <v>0.0</v>
       </c>
       <c r="DM98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -35614,11 +35906,14 @@
       </c>
       <c r="DM99" t="n">
         <v>98.0</v>
+      </c>
+      <c r="DN99" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -35966,12 +36261,15 @@
         <v>49.0</v>
       </c>
       <c r="DM100" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="DN100" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -36320,11 +36618,14 @@
       </c>
       <c r="DM101" t="n">
         <v>448.0</v>
+      </c>
+      <c r="DN101" t="n">
+        <v>446.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -36672,12 +36973,15 @@
         <v>55.0</v>
       </c>
       <c r="DM102" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DN102" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -37025,12 +37329,15 @@
         <v>2391.0</v>
       </c>
       <c r="DM103" t="n">
+        <v>2409.0</v>
+      </c>
+      <c r="DN103" t="n">
         <v>2409.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -37378,12 +37685,15 @@
         <v>0.0</v>
       </c>
       <c r="DM104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -37732,11 +38042,14 @@
       </c>
       <c r="DM105" t="n">
         <v>2196.0</v>
+      </c>
+      <c r="DN105" t="n">
+        <v>2208.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -38085,11 +38398,14 @@
       </c>
       <c r="DM106" t="n">
         <v>68.0</v>
+      </c>
+      <c r="DN106" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -38437,12 +38753,15 @@
         <v>234.0</v>
       </c>
       <c r="DM107" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="DN107" t="n">
         <v>234.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -38790,12 +39109,15 @@
         <v>1771.0</v>
       </c>
       <c r="DM108" t="n">
+        <v>1775.0</v>
+      </c>
+      <c r="DN108" t="n">
         <v>1775.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -39143,12 +39465,15 @@
         <v>41.0</v>
       </c>
       <c r="DM109" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="DN109" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -39496,12 +39821,15 @@
         <v>1799.0</v>
       </c>
       <c r="DM110" t="n">
+        <v>1816.0</v>
+      </c>
+      <c r="DN110" t="n">
         <v>1816.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -39850,11 +40178,14 @@
       </c>
       <c r="DM111" t="n">
         <v>23249.0</v>
+      </c>
+      <c r="DN111" t="n">
+        <v>23721.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -40202,12 +40533,15 @@
         <v>651.0</v>
       </c>
       <c r="DM112" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="DN112" t="n">
         <v>650.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -40556,11 +40890,14 @@
       </c>
       <c r="DM113" t="n">
         <v>267.0</v>
+      </c>
+      <c r="DN113" t="n">
+        <v>269.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -40909,11 +41246,14 @@
       </c>
       <c r="DM114" t="n">
         <v>2057.0</v>
+      </c>
+      <c r="DN114" t="n">
+        <v>2063.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -41262,11 +41602,14 @@
       </c>
       <c r="DM115" t="n">
         <v>1396.0</v>
+      </c>
+      <c r="DN115" t="n">
+        <v>1398.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -41614,12 +41957,15 @@
         <v>681.0</v>
       </c>
       <c r="DM116" t="n">
+        <v>681.0</v>
+      </c>
+      <c r="DN116" t="n">
         <v>681.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -41967,12 +42313,15 @@
         <v>1506.0</v>
       </c>
       <c r="DM117" t="n">
+        <v>1512.0</v>
+      </c>
+      <c r="DN117" t="n">
         <v>1512.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -42320,12 +42669,15 @@
         <v>79.0</v>
       </c>
       <c r="DM118" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="DN118" t="n">
         <v>79.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -42673,12 +43025,15 @@
         <v>0.0</v>
       </c>
       <c r="DM119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -43027,11 +43382,14 @@
       </c>
       <c r="DM120" t="n">
         <v>465.0</v>
+      </c>
+      <c r="DN120" t="n">
+        <v>468.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -43379,12 +43737,15 @@
         <v>62.0</v>
       </c>
       <c r="DM121" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="DN121" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -43733,11 +44094,14 @@
       </c>
       <c r="DM122" t="n">
         <v>76.0</v>
+      </c>
+      <c r="DN122" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -44086,11 +44450,14 @@
       </c>
       <c r="DM123" t="n">
         <v>239.0</v>
+      </c>
+      <c r="DN123" t="n">
+        <v>240.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -44438,12 +44805,15 @@
         <v>1374.0</v>
       </c>
       <c r="DM124" t="n">
+        <v>1381.0</v>
+      </c>
+      <c r="DN124" t="n">
         <v>1381.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -44791,12 +45161,15 @@
         <v>39.0</v>
       </c>
       <c r="DM125" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="DN125" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -45144,12 +45517,15 @@
         <v>0.0</v>
       </c>
       <c r="DM126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -45498,11 +45874,14 @@
       </c>
       <c r="DM127" t="n">
         <v>31.0</v>
+      </c>
+      <c r="DN127" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -45851,11 +46230,14 @@
       </c>
       <c r="DM128" t="n">
         <v>407.0</v>
+      </c>
+      <c r="DN128" t="n">
+        <v>416.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -46204,11 +46586,14 @@
       </c>
       <c r="DM129" t="n">
         <v>2422.0</v>
+      </c>
+      <c r="DN129" t="n">
+        <v>2452.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -46557,11 +46942,14 @@
       </c>
       <c r="DM130" t="n">
         <v>665.0</v>
+      </c>
+      <c r="DN130" t="n">
+        <v>666.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -46910,11 +47298,14 @@
       </c>
       <c r="DM131" t="n">
         <v>188.0</v>
+      </c>
+      <c r="DN131" t="n">
+        <v>190.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -47263,11 +47654,14 @@
       </c>
       <c r="DM132" t="n">
         <v>2083.0</v>
+      </c>
+      <c r="DN132" t="n">
+        <v>2114.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -47616,11 +48010,14 @@
       </c>
       <c r="DM133" t="n">
         <v>1338.0</v>
+      </c>
+      <c r="DN133" t="n">
+        <v>1351.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -47968,12 +48365,15 @@
         <v>16.0</v>
       </c>
       <c r="DM134" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DN134" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -48321,12 +48721,15 @@
         <v>42.0</v>
       </c>
       <c r="DM135" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DN135" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -48675,11 +49078,14 @@
       </c>
       <c r="DM136" t="n">
         <v>2011.0</v>
+      </c>
+      <c r="DN136" t="n">
+        <v>2034.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -49027,12 +49433,15 @@
         <v>52.0</v>
       </c>
       <c r="DM137" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DN137" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -49380,12 +49789,15 @@
         <v>6.0</v>
       </c>
       <c r="DM138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DN138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -49733,12 +50145,15 @@
         <v>13.0</v>
       </c>
       <c r="DM139" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="DN139" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -50087,11 +50502,14 @@
       </c>
       <c r="DM140" t="n">
         <v>549.0</v>
+      </c>
+      <c r="DN140" t="n">
+        <v>551.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -50439,12 +50857,15 @@
         <v>83.0</v>
       </c>
       <c r="DM141" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="DN141" t="n">
         <v>83.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -50793,11 +51214,14 @@
       </c>
       <c r="DM142" t="n">
         <v>3030.0</v>
+      </c>
+      <c r="DN142" t="n">
+        <v>3042.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -51146,11 +51570,14 @@
       </c>
       <c r="DM143" t="n">
         <v>432.0</v>
+      </c>
+      <c r="DN143" t="n">
+        <v>431.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -51499,11 +51926,14 @@
       </c>
       <c r="DM144" t="n">
         <v>319.0</v>
+      </c>
+      <c r="DN144" t="n">
+        <v>321.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -51852,11 +52282,14 @@
       </c>
       <c r="DM145" t="n">
         <v>59.0</v>
+      </c>
+      <c r="DN145" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -52205,11 +52638,14 @@
       </c>
       <c r="DM146" t="n">
         <v>426.0</v>
+      </c>
+      <c r="DN146" t="n">
+        <v>429.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -52558,11 +52994,14 @@
       </c>
       <c r="DM147" t="n">
         <v>1041.0</v>
+      </c>
+      <c r="DN147" t="n">
+        <v>1048.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -52910,12 +53349,15 @@
         <v>322.0</v>
       </c>
       <c r="DM148" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="DN148" t="n">
         <v>324.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -53264,11 +53706,14 @@
       </c>
       <c r="DM149" t="n">
         <v>1490.0</v>
+      </c>
+      <c r="DN149" t="n">
+        <v>1524.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -53617,11 +54062,14 @@
       </c>
       <c r="DM150" t="n">
         <v>561.0</v>
+      </c>
+      <c r="DN150" t="n">
+        <v>564.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -53969,12 +54417,15 @@
         <v>23.0</v>
       </c>
       <c r="DM151" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DN151" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -54322,12 +54773,15 @@
         <v>249.0</v>
       </c>
       <c r="DM152" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="DN152" t="n">
         <v>249.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -54675,12 +55129,15 @@
         <v>424.0</v>
       </c>
       <c r="DM153" t="n">
+        <v>424.0</v>
+      </c>
+      <c r="DN153" t="n">
         <v>424.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -55028,12 +55485,15 @@
         <v>0.0</v>
       </c>
       <c r="DM154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -55381,12 +55841,15 @@
         <v>0.0</v>
       </c>
       <c r="DM155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -55734,12 +56197,15 @@
         <v>0.0</v>
       </c>
       <c r="DM156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -56088,11 +56554,14 @@
       </c>
       <c r="DM157" t="n">
         <v>151.0</v>
+      </c>
+      <c r="DN157" t="n">
+        <v>153.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -56440,12 +56909,15 @@
         <v>0.0</v>
       </c>
       <c r="DM158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -56793,12 +57265,15 @@
         <v>19.0</v>
       </c>
       <c r="DM159" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DN159" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -57146,12 +57621,15 @@
         <v>217.0</v>
       </c>
       <c r="DM160" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="DN160" t="n">
         <v>217.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -57500,11 +57978,14 @@
       </c>
       <c r="DM161" t="n">
         <v>178.0</v>
+      </c>
+      <c r="DN161" t="n">
+        <v>179.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -57852,12 +58333,15 @@
         <v>253.0</v>
       </c>
       <c r="DM162" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="DN162" t="n">
         <v>253.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -58206,11 +58690,14 @@
       </c>
       <c r="DM163" t="n">
         <v>146.0</v>
+      </c>
+      <c r="DN163" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -58559,11 +59046,14 @@
       </c>
       <c r="DM164" t="n">
         <v>358.0</v>
+      </c>
+      <c r="DN164" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -58911,12 +59401,15 @@
         <v>0.0</v>
       </c>
       <c r="DM165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -59265,11 +59758,14 @@
       </c>
       <c r="DM166" t="n">
         <v>934.0</v>
+      </c>
+      <c r="DN166" t="n">
+        <v>950.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -59617,12 +60113,15 @@
         <v>66.0</v>
       </c>
       <c r="DM167" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="DN167" t="n">
         <v>66.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -59970,12 +60469,15 @@
         <v>0.0</v>
       </c>
       <c r="DM168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -60323,12 +60825,15 @@
         <v>990.0</v>
       </c>
       <c r="DM169" t="n">
+        <v>991.0</v>
+      </c>
+      <c r="DN169" t="n">
         <v>991.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -60676,12 +61181,15 @@
         <v>52.0</v>
       </c>
       <c r="DM170" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DN170" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -61029,12 +61537,15 @@
         <v>0.0</v>
       </c>
       <c r="DM171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -61383,11 +61894,14 @@
       </c>
       <c r="DM172" t="n">
         <v>297.0</v>
+      </c>
+      <c r="DN172" t="n">
+        <v>299.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -61736,11 +62250,14 @@
       </c>
       <c r="DM173" t="n">
         <v>7940.0</v>
+      </c>
+      <c r="DN173" t="n">
+        <v>8041.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -62089,11 +62606,14 @@
       </c>
       <c r="DM174" t="n">
         <v>300.0</v>
+      </c>
+      <c r="DN174" t="n">
+        <v>301.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -62441,12 +62961,15 @@
         <v>264.0</v>
       </c>
       <c r="DM175" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="DN175" t="n">
         <v>267.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -62794,12 +63317,15 @@
         <v>49.0</v>
       </c>
       <c r="DM176" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DN176" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -63148,11 +63674,14 @@
       </c>
       <c r="DM177" t="n">
         <v>925.0</v>
+      </c>
+      <c r="DN177" t="n">
+        <v>929.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -63500,12 +64029,15 @@
         <v>2130.0</v>
       </c>
       <c r="DM178" t="n">
+        <v>2130.0</v>
+      </c>
+      <c r="DN178" t="n">
         <v>2130.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -63854,11 +64386,14 @@
       </c>
       <c r="DM179" t="n">
         <v>289.0</v>
+      </c>
+      <c r="DN179" t="n">
+        <v>290.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -64206,12 +64741,15 @@
         <v>0.0</v>
       </c>
       <c r="DM180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -64560,11 +65098,14 @@
       </c>
       <c r="DM181" t="n">
         <v>9989.0</v>
+      </c>
+      <c r="DN181" t="n">
+        <v>10014.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -64912,12 +65453,15 @@
         <v>106.0</v>
       </c>
       <c r="DM182" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="DN182" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -65265,12 +65809,15 @@
         <v>129.0</v>
       </c>
       <c r="DM183" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="DN183" t="n">
         <v>129.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -65618,12 +66165,15 @@
         <v>3564.0</v>
       </c>
       <c r="DM184" t="n">
+        <v>3671.0</v>
+      </c>
+      <c r="DN184" t="n">
         <v>3671.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -65972,11 +66522,14 @@
       </c>
       <c r="DM185" t="n">
         <v>367.0</v>
+      </c>
+      <c r="DN185" t="n">
+        <v>368.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -66325,11 +66878,14 @@
       </c>
       <c r="DM186" t="n">
         <v>547.0</v>
+      </c>
+      <c r="DN186" t="n">
+        <v>550.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -66678,11 +67234,14 @@
       </c>
       <c r="DM187" t="n">
         <v>2803.0</v>
+      </c>
+      <c r="DN187" t="n">
+        <v>2821.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -67031,11 +67590,14 @@
       </c>
       <c r="DM188" t="n">
         <v>337.0</v>
+      </c>
+      <c r="DN188" t="n">
+        <v>338.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -67384,11 +67946,14 @@
       </c>
       <c r="DM189" t="n">
         <v>274.0</v>
+      </c>
+      <c r="DN189" t="n">
+        <v>275.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -67736,12 +68301,15 @@
         <v>1561.0</v>
       </c>
       <c r="DM190" t="n">
+        <v>1561.0</v>
+      </c>
+      <c r="DN190" t="n">
         <v>1561.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -68089,12 +68657,15 @@
         <v>0.0</v>
       </c>
       <c r="DM191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -68443,11 +69014,14 @@
       </c>
       <c r="DM192" t="n">
         <v>166.0</v>
+      </c>
+      <c r="DN192" t="n">
+        <v>164.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -68795,12 +69369,15 @@
         <v>367.0</v>
       </c>
       <c r="DM193" t="n">
+        <v>371.0</v>
+      </c>
+      <c r="DN193" t="n">
         <v>371.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -69148,12 +69725,15 @@
         <v>0.0</v>
       </c>
       <c r="DM194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -69501,12 +70081,15 @@
         <v>175.0</v>
       </c>
       <c r="DM195" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DN195" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -69854,12 +70437,15 @@
         <v>34.0</v>
       </c>
       <c r="DM196" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="DN196" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -70208,11 +70794,14 @@
       </c>
       <c r="DM197" t="n">
         <v>252.0</v>
+      </c>
+      <c r="DN197" t="n">
+        <v>253.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -70561,11 +71150,14 @@
       </c>
       <c r="DM198" t="n">
         <v>706.0</v>
+      </c>
+      <c r="DN198" t="n">
+        <v>707.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -70914,11 +71506,14 @@
       </c>
       <c r="DM199" t="n">
         <v>55.0</v>
+      </c>
+      <c r="DN199" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -71266,12 +71861,15 @@
         <v>3.0</v>
       </c>
       <c r="DM200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DN200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -71620,11 +72218,14 @@
       </c>
       <c r="DM201" t="n">
         <v>401.0</v>
+      </c>
+      <c r="DN201" t="n">
+        <v>400.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -71973,11 +72574,14 @@
       </c>
       <c r="DM202" t="n">
         <v>1812.0</v>
+      </c>
+      <c r="DN202" t="n">
+        <v>1823.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -72326,11 +72930,14 @@
       </c>
       <c r="DM203" t="n">
         <v>478.0</v>
+      </c>
+      <c r="DN203" t="n">
+        <v>480.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -72679,11 +73286,14 @@
       </c>
       <c r="DM204" t="n">
         <v>1619.0</v>
+      </c>
+      <c r="DN204" t="n">
+        <v>1622.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -73032,11 +73642,14 @@
       </c>
       <c r="DM205" t="n">
         <v>324.0</v>
+      </c>
+      <c r="DN205" t="n">
+        <v>325.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -73384,12 +73997,15 @@
         <v>207.0</v>
       </c>
       <c r="DM206" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="DN206" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -73738,11 +74354,14 @@
       </c>
       <c r="DM207" t="n">
         <v>264.0</v>
+      </c>
+      <c r="DN207" t="n">
+        <v>267.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -74090,12 +74709,15 @@
         <v>943.0</v>
       </c>
       <c r="DM208" t="n">
+        <v>943.0</v>
+      </c>
+      <c r="DN208" t="n">
         <v>943.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -74444,11 +75066,14 @@
       </c>
       <c r="DM209" t="n">
         <v>244.0</v>
+      </c>
+      <c r="DN209" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -74796,12 +75421,15 @@
         <v>109.0</v>
       </c>
       <c r="DM210" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="DN210" t="n">
         <v>110.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -75149,12 +75777,15 @@
         <v>0.0</v>
       </c>
       <c r="DM211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -75502,12 +76133,15 @@
         <v>122.0</v>
       </c>
       <c r="DM212" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="DN212" t="n">
         <v>122.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -75856,11 +76490,14 @@
       </c>
       <c r="DM213" t="n">
         <v>657.0</v>
+      </c>
+      <c r="DN213" t="n">
+        <v>658.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -76208,12 +76845,15 @@
         <v>23.0</v>
       </c>
       <c r="DM214" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DN214" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -76561,12 +77201,15 @@
         <v>7740.0</v>
       </c>
       <c r="DM215" t="n">
+        <v>7803.0</v>
+      </c>
+      <c r="DN215" t="n">
         <v>7803.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -76914,12 +77557,15 @@
         <v>456.0</v>
       </c>
       <c r="DM216" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="DN216" t="n">
         <v>456.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -77268,11 +77914,14 @@
       </c>
       <c r="DM217" t="n">
         <v>1459.0</v>
+      </c>
+      <c r="DN217" t="n">
+        <v>1491.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -77621,11 +78270,14 @@
       </c>
       <c r="DM218" t="n">
         <v>325.0</v>
+      </c>
+      <c r="DN218" t="n">
+        <v>327.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -77973,12 +78625,15 @@
         <v>57.0</v>
       </c>
       <c r="DM219" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DN219" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -78326,12 +78981,15 @@
         <v>101.0</v>
       </c>
       <c r="DM220" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="DN220" t="n">
         <v>103.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -78680,11 +79338,14 @@
       </c>
       <c r="DM221" t="n">
         <v>195.0</v>
+      </c>
+      <c r="DN221" t="n">
+        <v>194.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -79033,11 +79694,14 @@
       </c>
       <c r="DM222" t="n">
         <v>355.0</v>
+      </c>
+      <c r="DN222" t="n">
+        <v>358.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -79386,11 +80050,14 @@
       </c>
       <c r="DM223" t="n">
         <v>35239.0</v>
+      </c>
+      <c r="DN223" t="n">
+        <v>35395.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -79739,11 +80406,14 @@
       </c>
       <c r="DM224" t="n">
         <v>8065.0</v>
+      </c>
+      <c r="DN224" t="n">
+        <v>8078.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -80091,12 +80761,15 @@
         <v>11.0</v>
       </c>
       <c r="DM225" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DN225" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -80444,12 +81117,15 @@
         <v>0.0</v>
       </c>
       <c r="DM226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -80797,12 +81473,15 @@
         <v>23.0</v>
       </c>
       <c r="DM227" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DN227" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -81151,11 +81830,14 @@
       </c>
       <c r="DM228" t="n">
         <v>944.0</v>
+      </c>
+      <c r="DN228" t="n">
+        <v>946.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -81504,11 +82186,14 @@
       </c>
       <c r="DM229" t="n">
         <v>8004.0</v>
+      </c>
+      <c r="DN229" t="n">
+        <v>8012.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -81856,12 +82541,15 @@
         <v>0.0</v>
       </c>
       <c r="DM230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -82210,11 +82898,14 @@
       </c>
       <c r="DM231" t="n">
         <v>186.0</v>
+      </c>
+      <c r="DN231" t="n">
+        <v>187.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -82563,11 +83254,14 @@
       </c>
       <c r="DM232" t="n">
         <v>666.0</v>
+      </c>
+      <c r="DN232" t="n">
+        <v>667.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -82916,11 +83610,14 @@
       </c>
       <c r="DM233" t="n">
         <v>1841.0</v>
+      </c>
+      <c r="DN233" t="n">
+        <v>1844.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -83269,11 +83966,14 @@
       </c>
       <c r="DM234" t="n">
         <v>292.0</v>
+      </c>
+      <c r="DN234" t="n">
+        <v>290.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -83621,12 +84321,15 @@
         <v>113.0</v>
       </c>
       <c r="DM235" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="DN235" t="n">
         <v>114.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -83974,12 +84677,15 @@
         <v>0.0</v>
       </c>
       <c r="DM236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -84327,12 +85033,15 @@
         <v>1453.0</v>
       </c>
       <c r="DM237" t="n">
+        <v>1464.0</v>
+      </c>
+      <c r="DN237" t="n">
         <v>1464.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -84680,12 +85389,15 @@
         <v>9.0</v>
       </c>
       <c r="DM238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DN238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -85034,11 +85746,14 @@
       </c>
       <c r="DM239" t="n">
         <v>802.0</v>
+      </c>
+      <c r="DN239" t="n">
+        <v>809.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -85387,11 +86102,14 @@
       </c>
       <c r="DM240" t="n">
         <v>400.0</v>
+      </c>
+      <c r="DN240" t="n">
+        <v>408.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -85740,11 +86458,14 @@
       </c>
       <c r="DM241" t="n">
         <v>464.0</v>
+      </c>
+      <c r="DN241" t="n">
+        <v>465.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -86092,12 +86813,15 @@
         <v>620.0</v>
       </c>
       <c r="DM242" t="n">
+        <v>623.0</v>
+      </c>
+      <c r="DN242" t="n">
         <v>623.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -86445,12 +87169,15 @@
         <v>0.0</v>
       </c>
       <c r="DM243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -86799,11 +87526,14 @@
       </c>
       <c r="DM244" t="n">
         <v>379.0</v>
+      </c>
+      <c r="DN244" t="n">
+        <v>389.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -87151,12 +87881,15 @@
         <v>45.0</v>
       </c>
       <c r="DM245" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DN245" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -87504,12 +88237,15 @@
         <v>0.0</v>
       </c>
       <c r="DM246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -87858,11 +88594,14 @@
       </c>
       <c r="DM247" t="n">
         <v>278.0</v>
+      </c>
+      <c r="DN247" t="n">
+        <v>279.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -88211,11 +88950,14 @@
       </c>
       <c r="DM248" t="n">
         <v>156.0</v>
+      </c>
+      <c r="DN248" t="n">
+        <v>158.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -88563,12 +89305,15 @@
         <v>5059.0</v>
       </c>
       <c r="DM249" t="n">
+        <v>5059.0</v>
+      </c>
+      <c r="DN249" t="n">
         <v>5059.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -88917,11 +89662,14 @@
       </c>
       <c r="DM250" t="n">
         <v>992.0</v>
+      </c>
+      <c r="DN250" t="n">
+        <v>1001.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -89269,12 +90017,15 @@
         <v>180.0</v>
       </c>
       <c r="DM251" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="DN251" t="n">
         <v>181.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -89623,11 +90374,14 @@
       </c>
       <c r="DM252" t="n">
         <v>1090.0</v>
+      </c>
+      <c r="DN252" t="n">
+        <v>1100.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -89975,12 +90729,15 @@
         <v>1343.0</v>
       </c>
       <c r="DM253" t="n">
+        <v>1353.0</v>
+      </c>
+      <c r="DN253" t="n">
         <v>1353.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -90328,12 +91085,15 @@
         <v>0.0</v>
       </c>
       <c r="DM254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -90682,11 +91442,14 @@
       </c>
       <c r="DM255" t="n">
         <v>220.0</v>
+      </c>
+      <c r="DN255" t="n">
+        <v>222.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -91035,11 +91798,14 @@
       </c>
       <c r="DM256" t="n">
         <v>199.0</v>
+      </c>
+      <c r="DN256" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -91388,6 +92154,9 @@
       </c>
       <c r="DM257" t="n">
         <v>195.0</v>
+      </c>
+      <c r="DN257" t="n">
+        <v>199.0</v>
       </c>
     </row>
   </sheetData>
